--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>DOC</t>
+  </si>
+  <si>
+    <t>Template webbapplicatie maken</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="38">
     <dxf>
       <font>
         <b/>
@@ -362,6 +365,252 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -418,6 +667,88 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,7 +872,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -634,14 +965,14 @@
     <sortCondition ref="D1:D38"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="9"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="30"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="8"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="29"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="7"/>
+    <tableColumn id="8" name="APP" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -937,7 +1268,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,11 +1497,11 @@
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>11</v>
@@ -1180,15 +1511,37 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41360</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
         <v>1</v>
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1213,7 +1566,7 @@
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1234,7 +1587,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1496,32 +1849,57 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G41 G1:G7">
-    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H7 A9:H1048576">
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"In Process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:H8">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$G8="Solved"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$G8="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$G8="In Process"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$G8="Fixed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G9:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>$L$6:$L$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>Template webbapplicatie maken</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>4,5 uur</t>
+  </si>
+  <si>
+    <t>Werken aan template webapplicatie</t>
+  </si>
+  <si>
+    <t>Anke A, Robbie V, Steven V</t>
   </si>
 </sst>
 </file>
@@ -320,51 +332,25 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -447,226 +433,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -872,13 +638,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,14 +731,14 @@
     <sortCondition ref="D1:D38"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="30"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="29"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="28"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1268,7 +1034,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1044,7 @@
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1497,11 +1263,11 @@
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>11</v>
@@ -1530,18 +1296,18 @@
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1554,19 +1320,37 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1587,7 +1371,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1849,52 +1633,52 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G41 G1:G7">
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H7 A9:H1048576">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$G8="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$G8="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$G8="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$G8="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Anke A, Robbie V, Steven V</t>
+  </si>
+  <si>
+    <t>Handleiding Netbeans Git (met stash) gemaakt</t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>Werken website eigen gedeelte</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1043,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1316,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1346,11 +1355,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1363,15 +1372,33 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1381,12 +1408,30 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Werken website eigen gedeelte</t>
+  </si>
+  <si>
+    <t>Nazicht mock-ups</t>
+  </si>
+  <si>
+    <t>30 minuten</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1049,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1322,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1355,11 +1361,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1434,20 +1440,56 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="23">
+        <v>41363</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23">
+        <v>41364</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>30 minuten</t>
+  </si>
+  <si>
+    <t>Aanpassing CSS naar afspraken</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,7 +1055,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1328,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.16666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1361,11 +1367,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.83333333333333337</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1492,12 +1498,30 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="23">
+        <v>41365</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Connectieklasse databank gemaakt (.java)</t>
+  </si>
+  <si>
+    <t>2,30 uur</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1061,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1334,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.15384615384615385</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1367,11 +1373,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.84615384615384615</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1524,12 +1530,30 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="23">
+        <v>41365</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>2,30 uur</t>
+  </si>
+  <si>
+    <t>Aanmaken buglijst en pushen naar Git</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.14285714285714285</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1373,11 +1376,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.8571428571428571</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1416,7 +1419,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1556,12 +1559,30 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="23">
+        <v>41366</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="57">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -164,6 +164,27 @@
   </si>
   <si>
     <t>Aanmaken buglijst en pushen naar Git</t>
+  </si>
+  <si>
+    <t>Werken project</t>
+  </si>
+  <si>
+    <t>6 uur</t>
+  </si>
+  <si>
+    <t>Werken project - helpen Anke</t>
+  </si>
+  <si>
+    <t>7 uur</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>Opruiming ongebruikt project</t>
+  </si>
+  <si>
+    <t>IE &amp; Firefox comp. Gemaakt</t>
   </si>
 </sst>
 </file>
@@ -362,7 +383,805 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -381,170 +1200,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -674,7 +1329,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,14 +1416,14 @@
     <sortCondition ref="D1:D38"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="70"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="69"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="0"/>
+    <tableColumn id="8" name="APP" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1063,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1992,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>0.13333333333333333</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1376,11 +2031,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.8666666666666667</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1419,7 +2074,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1585,97 +2240,296 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="23">
+        <v>41367</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="23">
+        <v>41368</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="23">
+        <v>41369</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="23">
+        <v>41371</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="23">
+        <v>41372</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="23">
+        <v>41373</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="23">
+        <v>41374</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="23">
+        <v>41366</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="23">
+        <v>41376</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="23">
+        <v>41377</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="23">
+        <v>41378</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
@@ -1684,6 +2538,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
@@ -1788,58 +2643,58 @@
   <mergeCells count="1">
     <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:G41 G1:G7">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
+  <conditionalFormatting sqref="G1:G7 G9:G41">
+    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="38" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H7 A9:H1048576">
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="10" priority="29">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30">
+    <cfRule type="expression" dxfId="9" priority="30">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="31">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="32">
+    <cfRule type="expression" dxfId="7" priority="32">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G8="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G8="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$G8="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$G8="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G28 G29:G1048576">
       <formula1>$L$6:$L$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>IE &amp; Firefox comp. Gemaakt</t>
+  </si>
+  <si>
+    <t>Code Conventions en Nederlands gemaakt</t>
+  </si>
+  <si>
+    <t>Robbie V, Steven V</t>
   </si>
 </sst>
 </file>
@@ -383,86 +389,25 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,579 +575,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1329,7 +701,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,14 +788,14 @@
     <sortCondition ref="D1:D38"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="70"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="69"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="68"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1992,7 +1364,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -2031,11 +1403,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.92307692307692313</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -2074,7 +1446,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -2526,13 +1898,30 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="23">
+        <v>41379</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -2644,52 +2033,52 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G7 G9:G41">
-    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H7 A9:H1048576">
-    <cfRule type="expression" dxfId="10" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="30">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="32">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$G8="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$G8="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$G8="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$G8="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Robbie V, Steven V</t>
+  </si>
+  <si>
+    <t>Zoekgedeelte gemaakt</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>7.407407407407407E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1403,11 +1406,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.92592592592592593</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1924,13 +1927,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="23">
+        <v>41380</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Zoekgedeelte gemaakt</t>
+  </si>
+  <si>
+    <t>Verbetering uitleg en opmaak stored proc. en trigger</t>
+  </si>
+  <si>
+    <t>Werken project (bugfixen)</t>
+  </si>
+  <si>
+    <t>Wouter P, Robbie V, Steven V</t>
   </si>
 </sst>
 </file>
@@ -698,13 +707,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1103,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1113,7 @@
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1323,11 +1332,11 @@
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>11</v>
@@ -1367,7 +1376,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>7.1428571428571425E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1406,11 +1415,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.9285714285714286</v>
+        <v>0.9</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1449,7 +1458,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1953,20 +1962,56 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="23">
+        <v>41381</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="23">
+        <v>41382</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>

--- a/To Do/Steven Verheyen.xlsx
+++ b/To Do/Steven Verheyen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="65">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Wouter P, Robbie V, Steven V</t>
+  </si>
+  <si>
+    <t>Verbetering inlogsysteem en bug fixes</t>
+  </si>
+  <si>
+    <t>Nakijken Project in IE</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1109,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1342,7 @@
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>3.3333333333333333E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>11</v>
@@ -1376,7 +1382,7 @@
       </c>
       <c r="J8" s="8">
         <f>I8/$I$10</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>5</v>
@@ -1415,11 +1421,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.9</v>
+        <v>0.90625</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -2014,20 +2020,56 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="23">
+        <v>41384</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="23">
+        <v>41383</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
